--- a/0_0_Data/2_Processed_Data/3_gdp_component_forecast/yoy_forecast_data_CONSTR.xlsx
+++ b/0_0_Data/2_Processed_Data/3_gdp_component_forecast/yoy_forecast_data_CONSTR.xlsx
@@ -380,13 +380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,58 +546,61 @@
       <c r="BA1" s="2">
         <v>45891</v>
       </c>
-    </row>
-    <row r="2" spans="1:53">
+      <c r="BB1" s="2">
+        <v>45986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54">
       <c r="A2" s="2">
         <v>39447</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="2">
         <v>39813</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="2">
         <v>40178</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="2">
         <v>40908</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="2">
         <v>43100</v>
       </c>
@@ -605,7 +608,7 @@
         <v>2.587527088856256</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="2">
         <v>43465</v>
       </c>
@@ -613,7 +616,7 @@
         <v>2.803228334465135</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="2">
         <v>43830</v>
       </c>
@@ -624,7 +627,7 @@
         <v>2.706609179126063</v>
       </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="2">
         <v>44196</v>
       </c>
@@ -638,7 +641,7 @@
         <v>2.232990857922768</v>
       </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="2">
         <v>44561</v>
       </c>
@@ -652,7 +655,7 @@
         <v>1.409688817776389</v>
       </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="2">
         <v>44926</v>
       </c>
@@ -666,7 +669,7 @@
         <v>4.563535698811028</v>
       </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="2">
         <v>45291</v>
       </c>
@@ -680,7 +683,7 @@
         <v>3.581234796607768</v>
       </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="2">
         <v>45657</v>
       </c>
@@ -694,7 +697,7 @@
         <v>2.904850695107175</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="2">
         <v>46022</v>
       </c>
@@ -708,7 +711,7 @@
         <v>1.312919814073554</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="2">
         <v>46387</v>
       </c>
@@ -722,12 +725,15 @@
         <v>0.6363055975903809</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="2">
         <v>46752</v>
       </c>
       <c r="BA22">
         <v>2.485688171285982</v>
+      </c>
+      <c r="BB22">
+        <v>2.023666583656447</v>
       </c>
     </row>
   </sheetData>
